--- a/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
+++ b/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
@@ -1,37 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 4 - Chair obstacle VamiaV0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEC7F0-9014-478F-98BE-50095A8A2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11055" yWindow="990" windowWidth="14565" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +74,1235 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>46.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.733333333333327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.733333333333327</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.733333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32CA-4671-A7B1-8593F3F48B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43.117509926287681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.235019852575363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.228571256521946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.352529778863044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.34608118280962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.484176606530049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.470039705150725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.339632586756203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.117509926287681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.463591109097301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.601686532817723</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.587549631438399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.457142513043877</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.235019852575363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.938695500265183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.581101035384989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.172056841791587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.719196459105405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32CA-4671-A7B1-8593F3F48B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="876980719"/>
+        <c:axId val="876984047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="876980719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876984047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="876984047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876980719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA625C8B-A805-417F-B11F-425473C7555B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,252 +1589,615 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>55</v>
+      </c>
+      <c r="G1">
+        <v>1.7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>-40.2</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="C2">
         <v>1.681269361722465</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>-B2</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G2" t="e">
+        <f>10*$G$1*LOG(A2/100, 10) + $F$1</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>POWER(10, (-B2-$F$1)/(10*$G$1))*100</f>
+        <v>13.471370006941852</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
-        <v>-46.13333333333333</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.801586851926759</v>
+      <c r="B3">
+        <v>-46.133333333333333</v>
+      </c>
+      <c r="C3">
+        <v>2.8015868519267588</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">-B3</f>
+        <v>46.133333333333333</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">10*$G$1*LOG(A3/100, 10) + $F$1</f>
+        <v>43.117509926287681</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J21" si="2">POWER(10, (-B3-$F$1)/(10*$G$1))*100</f>
+        <v>30.090636374245971</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
-        <v>-41.13333333333333</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.061283311165374</v>
+      <c r="B4">
+        <v>-41.133333333333333</v>
+      </c>
+      <c r="C4">
+        <v>2.0612833111653739</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>41.133333333333333</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>48.235019852575363</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>15.28669939515418</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-49.6</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.509480265991543</v>
+      <c r="C5">
+        <v>6.5094802659915434</v>
+      </c>
+      <c r="E5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>49.6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>51.228571256521946</v>
+      </c>
+      <c r="I5" s="1">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>48.123027439974187</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" t="n">
-        <v>-47.33333333333334</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>-47.333333333333343</v>
+      </c>
+      <c r="C6">
         <v>1.135292424395093</v>
       </c>
+      <c r="E6" s="1">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>47.333333333333343</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>53.352529778863044</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>35.401332397365827</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" t="n">
-        <v>-56.66666666666666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.97549550854541</v>
+      <c r="B7">
+        <v>-56.666666666666657</v>
+      </c>
+      <c r="C7">
+        <v>4.9754955085454098</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>56.666666666666657</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>125.32543355087789</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-55.06666666666667</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.768866554856213</v>
       </c>
+      <c r="E8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>55.06666666666667</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>56.34608118280962</v>
+      </c>
+      <c r="I8" s="1">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>100.90706366004683</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" t="n">
-        <v>-52.13333333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.616877251514876</v>
+      <c r="B9">
+        <v>-52.133333333333333</v>
+      </c>
+      <c r="C9">
+        <v>4.6168772515148762</v>
+      </c>
+      <c r="E9" s="1">
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>52.133333333333333</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>57.484176606530049</v>
+      </c>
+      <c r="I9" s="1">
+        <v>140</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>67.822305538958958</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" t="n">
-        <v>-55.33333333333334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.927113726672838</v>
+      <c r="B10">
+        <v>-55.333333333333343</v>
+      </c>
+      <c r="C10">
+        <v>3.9271137266728382</v>
+      </c>
+      <c r="E10" s="1">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>55.333333333333343</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>58.470039705150725</v>
+      </c>
+      <c r="I10" s="1">
+        <v>160</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>104.61834443918268</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>180</v>
       </c>
-      <c r="B11" t="n">
-        <v>-55.53333333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.289822513300632</v>
+      <c r="B11">
+        <v>-55.533333333333331</v>
+      </c>
+      <c r="C11">
+        <v>5.2898225133006322</v>
+      </c>
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>59.339632586756203</v>
+      </c>
+      <c r="I11" s="1">
+        <v>180</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>107.49111034571371</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" t="n">
-        <v>-55.33333333333334</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.04776785350999</v>
+      <c r="B12">
+        <v>-55.333333333333343</v>
+      </c>
+      <c r="C12">
+        <v>3.0477678535099901</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>55.333333333333343</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>60.117509926287681</v>
+      </c>
+      <c r="I12" s="1">
+        <v>200</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>104.61834443918268</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>240</v>
       </c>
-      <c r="B13" t="n">
-        <v>-55.86666666666667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.246973272847029</v>
+      <c r="B13">
+        <v>-55.866666666666667</v>
+      </c>
+      <c r="C13">
+        <v>2.2469732728470291</v>
+      </c>
+      <c r="E13" s="1">
+        <v>240</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>55.866666666666667</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>61.463591109097301</v>
+      </c>
+      <c r="I13" s="1">
+        <v>240</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>112.45542006298056</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>280</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-54.4</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.773592452822642</v>
+      <c r="C14">
+        <v>3.7735924528226419</v>
+      </c>
+      <c r="E14" s="1">
+        <v>280</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>62.601686532817723</v>
+      </c>
+      <c r="I14" s="1">
+        <v>280</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>92.19468447849988</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>320</v>
       </c>
-      <c r="B15" t="n">
-        <v>-53.73333333333333</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.940671121635107</v>
+      <c r="B15">
+        <v>-53.733333333333327</v>
+      </c>
+      <c r="C15">
+        <v>3.9406711216351069</v>
+      </c>
+      <c r="E15" s="1">
+        <v>320</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>53.733333333333327</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>63.587549631438399</v>
+      </c>
+      <c r="I15" s="1">
+        <v>320</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>84.234537581293068</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>360</v>
       </c>
-      <c r="B16" t="n">
-        <v>-53.86666666666667</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>-53.866666666666667</v>
+      </c>
+      <c r="C16">
         <v>3.138293945583952</v>
       </c>
+      <c r="E16" s="1">
+        <v>360</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>53.866666666666667</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>64.457142513043877</v>
+      </c>
+      <c r="I16" s="1">
+        <v>360</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>85.769589859089407</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>400</v>
       </c>
-      <c r="B17" t="n">
-        <v>-57.53333333333333</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>-57.533333333333331</v>
+      </c>
+      <c r="C17">
         <v>3.36386021641143</v>
       </c>
+      <c r="E17" s="1">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>57.533333333333331</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>65.235019852575363</v>
+      </c>
+      <c r="I17" s="1">
+        <v>400</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>140.93524274539146</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>440</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-62.6</v>
       </c>
-      <c r="C18" t="n">
-        <v>5.438136935875497</v>
+      <c r="C18">
+        <v>5.4381369358754972</v>
+      </c>
+      <c r="E18" s="1">
+        <v>440</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>62.6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>65.938695500265183</v>
+      </c>
+      <c r="I18" s="1">
+        <v>440</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>279.93604566431827</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>480</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-59.93333333333333</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.479087208597553</v>
+      <c r="C19">
+        <v>4.4790872085975533</v>
+      </c>
+      <c r="E19" s="1">
+        <v>480</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>59.93333333333333</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>66.581101035384989</v>
+      </c>
+      <c r="I19" s="1">
+        <v>480</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>195.07251285382401</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>520</v>
       </c>
-      <c r="B20" t="n">
-        <v>-56.73333333333333</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.174600857373345</v>
+      <c r="B20">
+        <v>-56.733333333333327</v>
+      </c>
+      <c r="C20">
+        <v>2.1746008573733451</v>
+      </c>
+      <c r="E20" s="1">
+        <v>520</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>56.733333333333327</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>67.172056841791587</v>
+      </c>
+      <c r="I20" s="1">
+        <v>520</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>126.46221501541403</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>560</v>
       </c>
-      <c r="B21" t="n">
-        <v>-67.73333333333333</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.767482447674966</v>
+      <c r="B21">
+        <v>-67.733333333333334</v>
+      </c>
+      <c r="C21">
+        <v>4.7674824476749658</v>
+      </c>
+      <c r="E21" s="1">
+        <v>560</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>67.733333333333334</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>67.719196459105405</v>
+      </c>
+      <c r="I21" s="1">
+        <v>560</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>561.07330720638117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
+++ b/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 4 - Chair obstacle VamiaV0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEC7F0-9014-478F-98BE-50095A8A2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26A140-5992-4775-8121-FCB8157F1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="990" windowWidth="14565" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
@@ -43,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +77,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,18 +118,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,6 +163,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Vamia Gateway with Normal Antenna - Obstacles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -168,6 +228,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Real RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -334,6 +397,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Computed RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -574,6 +640,7 @@
         <c:axId val="876984047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1590,19 +1657,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1684,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1645,7 +1713,7 @@
         <v>13.471370006941852</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1673,8 +1741,12 @@
         <f t="shared" ref="J3:J21" si="2">POWER(10, (-B3-$F$1)/(10*$G$1))*100</f>
         <v>30.090636374245971</v>
       </c>
+      <c r="K3" s="3">
+        <f>(J3-I3)/I3</f>
+        <v>0.50453181871229857</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1702,8 +1774,12 @@
         <f t="shared" si="2"/>
         <v>15.28669939515418</v>
       </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K21" si="3">(J4-I4)/I4</f>
+        <v>-0.61783251512114545</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1731,8 +1807,12 @@
         <f t="shared" si="2"/>
         <v>48.123027439974187</v>
       </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.19794954266709688</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1760,8 +1840,12 @@
         <f t="shared" si="2"/>
         <v>35.401332397365827</v>
       </c>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.55748334503292718</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1789,8 +1873,12 @@
         <f t="shared" si="2"/>
         <v>125.32543355087789</v>
       </c>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2532543355087789</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1818,8 +1906,12 @@
         <f t="shared" si="2"/>
         <v>100.90706366004683</v>
       </c>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.15910780283294307</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1847,8 +1939,12 @@
         <f t="shared" si="2"/>
         <v>67.822305538958958</v>
       </c>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.51555496043600746</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1876,8 +1972,12 @@
         <f t="shared" si="2"/>
         <v>104.61834443918268</v>
       </c>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.34613534725510825</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1905,8 +2005,12 @@
         <f t="shared" si="2"/>
         <v>107.49111034571371</v>
       </c>
+      <c r="K11" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.40282716474603497</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -1934,8 +2038,12 @@
         <f t="shared" si="2"/>
         <v>104.61834443918268</v>
       </c>
+      <c r="K12" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.47690827780408662</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -1963,8 +2071,12 @@
         <f t="shared" si="2"/>
         <v>112.45542006298056</v>
       </c>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.53143574973758101</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -1992,8 +2104,12 @@
         <f t="shared" si="2"/>
         <v>92.19468447849988</v>
       </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.67073326971964331</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2021,8 +2137,12 @@
         <f t="shared" si="2"/>
         <v>84.234537581293068</v>
       </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.73676707005845921</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2050,8 +2170,12 @@
         <f t="shared" si="2"/>
         <v>85.769589859089407</v>
       </c>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.76175113928030713</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2079,8 +2203,12 @@
         <f t="shared" si="2"/>
         <v>140.93524274539146</v>
       </c>
+      <c r="K17" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.64766189313652134</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2108,8 +2236,12 @@
         <f t="shared" si="2"/>
         <v>279.93604566431827</v>
       </c>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.36378171439927665</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2137,8 +2269,12 @@
         <f t="shared" si="2"/>
         <v>195.07251285382401</v>
       </c>
+      <c r="K19" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.59359893155453325</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2166,8 +2302,12 @@
         <f t="shared" si="2"/>
         <v>126.46221501541403</v>
       </c>
+      <c r="K20" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.75680343266266537</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2194,6 +2334,16 @@
       <c r="J21" s="2">
         <f t="shared" si="2"/>
         <v>561.07330720638117</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9166200113949522E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" cm="1">
+        <f t="array" ref="K24">SUM(ABS(K3:K21))/COUNT(K3:K21)</f>
+        <v>0.47873868056193736</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
+++ b/Measurements/Test 4 - Chair obstacle VamiaV0/Statistics4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 4 - Chair obstacle VamiaV0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\Proyects\Work\Vamia-SerialPortReading\Measurements\Test 4 - Chair obstacle VamiaV0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26A140-5992-4775-8121-FCB8157F1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBADAA5-D3C1-4904-9F0D-A9CFDC9188DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,61 +497,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>43.117509926287681</c:v>
+                  <c:v>40.418539921951663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.235019852575363</c:v>
+                  <c:v>45.837079843903325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.228571256521946</c:v>
+                  <c:v>49.006722506905582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.352529778863044</c:v>
+                  <c:v>51.255619765854988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.34608118280962</c:v>
+                  <c:v>54.425262428857245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.484176606530049</c:v>
+                  <c:v>55.630304642208287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.470039705150725</c:v>
+                  <c:v>56.674159687806643</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.339632586756203</c:v>
+                  <c:v>57.594905091859509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.117509926287681</c:v>
+                  <c:v>58.418539921951663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.463591109097301</c:v>
+                  <c:v>59.843802350808907</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.601686532817723</c:v>
+                  <c:v>61.048844564159943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.587549631438399</c:v>
+                  <c:v>62.092699609758306</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.457142513043877</c:v>
+                  <c:v>63.013445013811165</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.235019852575363</c:v>
+                  <c:v>63.837079843903325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.938695500265183</c:v>
+                  <c:v>64.582148176751375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.581101035384989</c:v>
+                  <c:v>65.262342272760577</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.172056841791587</c:v>
+                  <c:v>65.888060185426383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.719196459105405</c:v>
+                  <c:v>66.467384486111612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,14 +1663,14 @@
       <selection activeCell="I3" sqref="I3:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="J2" s="2">
         <f>POWER(10, (-B2-$F$1)/(10*$G$1))*100</f>
-        <v>13.471370006941852</v>
+        <v>19.448624389373627</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1732,21 +1732,21 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="1">10*$G$1*LOG(A3/100, 10) + $F$1</f>
-        <v>43.117509926287681</v>
+        <v>40.418539921951663</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J21" si="2">POWER(10, (-B3-$F$1)/(10*$G$1))*100</f>
-        <v>30.090636374245971</v>
+        <v>41.544976583524765</v>
       </c>
       <c r="K3" s="3">
         <f>(J3-I3)/I3</f>
-        <v>0.50453181871229857</v>
+        <v>1.0772488291762383</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1765,21 +1765,21 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>48.235019852575363</v>
+        <v>45.837079843903325</v>
       </c>
       <c r="I4" s="1">
         <v>40</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>15.28669939515418</v>
+        <v>21.914962948968718</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K21" si="3">(J4-I4)/I4</f>
-        <v>-0.61783251512114545</v>
+        <v>-0.45212592627578208</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1798,21 +1798,21 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>51.228571256521946</v>
+        <v>49.006722506905582</v>
       </c>
       <c r="I5" s="1">
         <v>60</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>48.123027439974187</v>
+        <v>64.730820370103999</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="3"/>
-        <v>-0.19794954266709688</v>
+        <v>7.8847006168399972E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1831,21 +1831,21 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>53.352529778863044</v>
+        <v>51.255619765854988</v>
       </c>
       <c r="I6" s="1">
         <v>80</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>35.401332397365827</v>
+        <v>48.437886495410481</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>-0.55748334503292718</v>
+        <v>-0.39452641880736899</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1864,21 +1864,21 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>125.32543355087789</v>
+        <v>159.84671064343178</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>0.2532543355087789</v>
+        <v>0.59846710643431777</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1897,21 +1897,21 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>56.34608118280962</v>
+        <v>54.425262428857245</v>
       </c>
       <c r="I8" s="1">
         <v>120</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>100.90706366004683</v>
+        <v>130.26112205370023</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="3"/>
-        <v>-0.15910780283294307</v>
+        <v>8.550935044750195E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1930,21 +1930,21 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>57.484176606530049</v>
+        <v>55.630304642208287</v>
       </c>
       <c r="I9" s="1">
         <v>140</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>67.822305538958958</v>
+        <v>89.505938748108051</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="3"/>
-        <v>-0.51555496043600746</v>
+        <v>-0.36067186608494251</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1963,21 +1963,21 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>58.470039705150725</v>
+        <v>56.674159687806643</v>
       </c>
       <c r="I10" s="1">
         <v>160</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>104.61834443918268</v>
+        <v>134.78129649084593</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="3"/>
-        <v>-0.34613534725510825</v>
+        <v>-0.15761689693221292</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1996,21 +1996,21 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>59.339632586756203</v>
+        <v>57.594905091859509</v>
       </c>
       <c r="I11" s="1">
         <v>180</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>107.49111034571371</v>
+        <v>138.27406826663128</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>-0.40282716474603497</v>
+        <v>-0.23181073185204848</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -2029,21 +2029,21 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>60.117509926287681</v>
+        <v>58.418539921951663</v>
       </c>
       <c r="I12" s="1">
         <v>200</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>104.61834443918268</v>
+        <v>134.78129649084593</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="3"/>
-        <v>-0.47690827780408662</v>
+        <v>-0.32609351754577032</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -2062,21 +2062,21 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>61.463591109097301</v>
+        <v>59.843802350808907</v>
       </c>
       <c r="I13" s="1">
         <v>240</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>112.45542006298056</v>
+        <v>144.29765031006775</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>-0.53143574973758101</v>
+        <v>-0.3987597903747177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -2095,21 +2095,21 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>62.601686532817723</v>
+        <v>61.048844564159943</v>
       </c>
       <c r="I14" s="1">
         <v>280</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>92.19468447849988</v>
+        <v>119.61283330787533</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>-0.67073326971964331</v>
+        <v>-0.57281130961473092</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2128,21 +2128,21 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>63.587549631438399</v>
+        <v>62.092699609758306</v>
       </c>
       <c r="I15" s="1">
         <v>320</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>84.234537581293068</v>
+        <v>109.83499655437794</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="3"/>
-        <v>-0.73676707005845921</v>
+        <v>-0.65676563576756897</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2161,21 +2161,21 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>64.457142513043877</v>
+        <v>63.013445013811165</v>
       </c>
       <c r="I16" s="1">
         <v>360</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>85.769589859089407</v>
+        <v>111.72443013130653</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="3"/>
-        <v>-0.76175113928030713</v>
+        <v>-0.68965436074637076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2194,21 +2194,21 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>65.235019852575363</v>
+        <v>63.837079843903325</v>
       </c>
       <c r="I17" s="1">
         <v>400</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>140.93524274539146</v>
+        <v>178.58782655001281</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="3"/>
-        <v>-0.64766189313652134</v>
+        <v>-0.55353043362496801</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2227,21 +2227,21 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>65.938695500265183</v>
+        <v>64.582148176751375</v>
       </c>
       <c r="I18" s="1">
         <v>440</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>279.93604566431827</v>
+        <v>341.4548873833603</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="3"/>
-        <v>-0.36378171439927665</v>
+        <v>-0.22396616503781749</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2260,21 +2260,21 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>66.581101035384989</v>
+        <v>65.262342272760577</v>
       </c>
       <c r="I19" s="1">
         <v>480</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>195.07251285382401</v>
+        <v>242.76450335386554</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="3"/>
-        <v>-0.59359893155453325</v>
+        <v>-0.49424061801278013</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2293,21 +2293,21 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>67.172056841791587</v>
+        <v>65.888060185426383</v>
       </c>
       <c r="I20" s="1">
         <v>520</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>126.46221501541403</v>
+        <v>161.21572750178851</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="3"/>
-        <v>-0.75680343266266537</v>
+        <v>-0.68996975480425293</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2326,24 +2326,24 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>67.719196459105405</v>
+        <v>66.467384486111612</v>
       </c>
       <c r="I21" s="1">
         <v>560</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>561.07330720638117</v>
+        <v>658.44350568184802</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="3"/>
-        <v>1.9166200113949522E-3</v>
+        <v>0.17579197443187147</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K24" s="4" cm="1">
         <f t="array" ref="K24">SUM(ABS(K3:K21))/COUNT(K3:K21)</f>
-        <v>0.47873868056193736</v>
+        <v>0.43254777327050853</v>
       </c>
     </row>
   </sheetData>
